--- a/biology/Médecine/Benoît_Drolet/Benoît_Drolet.xlsx
+++ b/biology/Médecine/Benoît_Drolet/Benoît_Drolet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Drolet</t>
+          <t>Benoît_Drolet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Drolet est un chercheur, professeur et pharmacien québécois à l'Université Laval à Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Drolet</t>
+          <t>Benoît_Drolet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Drolet a fait des études poussées en pharmacologie à l'université Laval (1991-2001) et à l'université Vanderbilt (2001-2003).
 Il enseigne d'ailleurs comme professeur adjoint en pharmacologie, tout en effectuant des recherches au Centre de recherche de l'Hôpital Laval à Québec.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Drolet</t>
+          <t>Benoît_Drolet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Diabète et maladies cardiaques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a découvert que les médications pour le diabète et le cœur ne faisaient pas bon ménage. En effet, ceux qui souffrent du diabète de type 2 sont encore plus exposés à l'aggravation de leur problème cardiaque. La toxicité du diabète est comparable à celle du médicament contre les maladies cardiaques. Il recommande donc de mieux doser les médicaments pour ceux qui souffrent de ces deux maladies.
 Ses résultats ont été présentés à la Conférence mondiale de pharmacologie clinique et thérapeutique qui se déroulait à Québec en 2008. La publication complète sera ultérieure.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Drolet</t>
+          <t>Benoît_Drolet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Affaire Prepulsid</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début 2000, c'est là que le Dr. Drolet s'est fait connaître. Ses études sur le médicament Prepulsid avait démontré les effets nocifs sur la santé. Il avait réussi, à ce moment, à faire en sorte que Santé Canada et la Food and Drug Administration interdisent ce médicament d'être vendu[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début 2000, c'est là que le Dr. Drolet s'est fait connaître. Ses études sur le médicament Prepulsid avait démontré les effets nocifs sur la santé. Il avait réussi, à ce moment, à faire en sorte que Santé Canada et la Food and Drug Administration interdisent ce médicament d'être vendu.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Drolet</t>
+          <t>Benoît_Drolet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2006 : Prix de la Fondation de la famille Birks (5000 $); attribué au jeune chercheur ayant obtenu la plus haute cote d'évaluation au concours de subventions de la Fondation des maladies du cœur du Québec
 2004-2009 : Bourse de nouveau chercheur de la Fondation des maladies du cœur du Canada
